--- a/data/trans_camb/P14B_x_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P14B_x_R-Estudios-trans_camb.xlsx
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,34; 4,84</t>
+          <t>2,37; 5,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,03; 10,34</t>
+          <t>6,02; 10,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,0; 15,31</t>
+          <t>11,07; 15,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,7; 15,32</t>
+          <t>11,65; 15,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,57; 10,33</t>
+          <t>7,53; 10,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,85; 12,76</t>
+          <t>9,92; 12,65</t>
         </is>
       </c>
     </row>
@@ -906,12 +906,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 2,46</t>
+          <t>1,28; 2,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,47; 4,26</t>
+          <t>2,44; 4,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,04; 6,09</t>
+          <t>4,09; 6,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,67; 8,06</t>
+          <t>5,65; 8,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,86; 4,07</t>
+          <t>2,83; 3,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,46; 5,79</t>
+          <t>4,41; 5,84</t>
         </is>
       </c>
     </row>
@@ -1122,12 +1122,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,46</t>
+          <t>0,16; 1,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,85; 4,91</t>
+          <t>1,81; 4,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,93</t>
+          <t>0,72; 3,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,9; 5,66</t>
+          <t>3,01; 5,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,56; 1,88</t>
+          <t>0,56; 1,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,65; 4,62</t>
+          <t>2,7; 4,68</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,25; 4,68</t>
+          <t>3,25; 4,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1353,12 +1353,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,88; 7,66</t>
+          <t>5,88; 7,68</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,87; 8,68</t>
+          <t>6,82; 8,54</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1368,12 +1368,12 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,97; 4,97</t>
+          <t>3,92; 4,95</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,4; 6,53</t>
+          <t>5,43; 6,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P14B_x_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P14B_x_R-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,37; 5,12</t>
+          <t>2,25; 4,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,07; 15,61</t>
+          <t>11,07; 15,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,53; 10,45</t>
+          <t>7,5; 10,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 2,52</t>
+          <t>1,33; 2,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,09; 6,07</t>
+          <t>4,0; 6,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,83; 3,99</t>
+          <t>2,88; 4,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,41</t>
+          <t>0,16; 1,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,07</t>
+          <t>0,71; 3,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,56; 1,9</t>
+          <t>0,54; 1,89</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,54; 2,49</t>
+          <t>1,55; 2,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,88; 7,68</t>
+          <t>5,87; 7,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,92; 4,95</t>
+          <t>3,96; 4,97</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">

--- a/data/trans_camb/P14B_x_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P14B_x_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,25; 4,66</t>
+          <t>2,34; 4,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,02; 10,62</t>
+          <t>6,03; 10,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,07; 15,67</t>
+          <t>11,0; 15,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,65; 15,43</t>
+          <t>11,7; 15,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,5; 10,41</t>
+          <t>7,57; 10,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,92; 12,65</t>
+          <t>9,85; 12,76</t>
         </is>
       </c>
     </row>
@@ -906,12 +906,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,33; 2,52</t>
+          <t>1,32; 2,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 4,11</t>
+          <t>2,47; 4,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,0; 6,06</t>
+          <t>4,04; 6,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,65; 8,0</t>
+          <t>5,67; 8,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,88; 4,0</t>
+          <t>2,86; 4,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,41; 5,84</t>
+          <t>4,46; 5,79</t>
         </is>
       </c>
     </row>
@@ -1122,12 +1122,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,52</t>
+          <t>0,16; 1,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,81; 4,86</t>
+          <t>1,85; 4,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,71; 3,2</t>
+          <t>0,71; 2,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,01; 5,8</t>
+          <t>2,9; 5,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,54; 1,89</t>
+          <t>0,56; 1,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,7; 4,68</t>
+          <t>2,65; 4,62</t>
         </is>
       </c>
     </row>
@@ -1338,12 +1338,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,55; 2,5</t>
+          <t>1,54; 2,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,25; 4,73</t>
+          <t>3,25; 4,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1353,12 +1353,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,87; 7,66</t>
+          <t>5,88; 7,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,82; 8,54</t>
+          <t>6,87; 8,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1368,12 +1368,12 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,96; 4,97</t>
+          <t>3,97; 4,97</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,43; 6,55</t>
+          <t>5,4; 6,53</t>
         </is>
       </c>
     </row>
